--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\kpl_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E8CCF1-E686-4D5D-9564-C386D6F547F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C9505-7CD5-4D9E-B1BC-3E2A91C1D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\kpl_asset_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C9505-7CD5-4D9E-B1BC-3E2A91C1D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2758017D-B11A-4295-AB0B-3E35A23B08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,10 +381,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +725,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,10 +736,10 @@
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -766,16 +767,16 @@
       <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -816,13 +817,13 @@
       <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>45817</v>
       </c>
-      <c r="I2" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J2" s="3">
         <v>47565</v>
       </c>
       <c r="K2" t="s">
@@ -848,13 +849,13 @@
       <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>45817</v>
       </c>
-      <c r="I3" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J3" s="3">
         <v>47565</v>
       </c>
       <c r="K3" t="s">
@@ -880,13 +881,13 @@
       <c r="F4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>45815</v>
       </c>
-      <c r="I4" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J4" s="3">
         <v>47565</v>
       </c>
       <c r="K4" t="s">
@@ -912,13 +913,13 @@
       <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>45815</v>
       </c>
-      <c r="I5" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J5" s="3">
         <v>47565</v>
       </c>
       <c r="K5" t="s">
@@ -944,13 +945,13 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>45814</v>
       </c>
-      <c r="I6" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J6" s="3">
         <v>47565</v>
       </c>
       <c r="K6" t="s">
@@ -976,13 +977,13 @@
       <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>45814</v>
       </c>
-      <c r="I7" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J7" s="3">
         <v>47565</v>
       </c>
       <c r="K7" t="s">
@@ -1008,13 +1009,13 @@
       <c r="F8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>45814</v>
       </c>
-      <c r="I8" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J8" s="3">
         <v>47565</v>
       </c>
       <c r="K8" t="s">
@@ -1040,13 +1041,13 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <v>45814</v>
       </c>
-      <c r="I9" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J9" s="3">
         <v>47565</v>
       </c>
       <c r="K9" t="s">
@@ -1072,13 +1073,13 @@
       <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>45817</v>
       </c>
-      <c r="I10" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J10" s="3">
         <v>47565</v>
       </c>
       <c r="K10" t="s">
@@ -1104,13 +1105,13 @@
       <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>45817</v>
       </c>
-      <c r="I11" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J11" s="3">
         <v>47565</v>
       </c>
       <c r="K11" t="s">
@@ -1136,13 +1137,13 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <v>45817</v>
       </c>
-      <c r="I12" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J12" s="3">
         <v>47565</v>
       </c>
       <c r="K12" t="s">
@@ -1168,13 +1169,13 @@
       <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>45817</v>
       </c>
-      <c r="I13" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J13" s="3">
         <v>47565</v>
       </c>
       <c r="K13" t="s">
@@ -1200,13 +1201,13 @@
       <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>45817</v>
       </c>
-      <c r="I14" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J14" s="3">
         <v>47565</v>
       </c>
       <c r="K14" t="s">
@@ -1232,13 +1233,13 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>45815</v>
       </c>
-      <c r="I15" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J15" s="3">
         <v>47565</v>
       </c>
       <c r="K15" t="s">
@@ -1264,13 +1265,13 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>45815</v>
       </c>
-      <c r="I16" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J16" s="3">
         <v>47565</v>
       </c>
       <c r="K16" t="s">
@@ -1296,13 +1297,13 @@
       <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>45815</v>
       </c>
-      <c r="I17" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J17" s="3">
         <v>47565</v>
       </c>
       <c r="K17" t="s">
@@ -1328,13 +1329,13 @@
       <c r="F18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>45815</v>
       </c>
-      <c r="I18" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J18" s="3">
         <v>47565</v>
       </c>
       <c r="K18" t="s">
@@ -1360,13 +1361,13 @@
       <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>45815</v>
       </c>
-      <c r="I19" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J19" s="3">
         <v>47565</v>
       </c>
       <c r="K19" t="s">
@@ -1392,13 +1393,13 @@
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <v>45817</v>
       </c>
-      <c r="I20" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J20" s="3">
         <v>47565</v>
       </c>
       <c r="K20" t="s">
@@ -1424,13 +1425,13 @@
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <v>45785</v>
       </c>
-      <c r="I21" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J21" s="3">
         <v>47565</v>
       </c>
       <c r="K21" t="s">
@@ -1456,13 +1457,13 @@
       <c r="F22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>45814</v>
       </c>
-      <c r="I22" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J22" s="3">
         <v>47565</v>
       </c>
       <c r="K22" t="s">
@@ -1488,13 +1489,13 @@
       <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>45785</v>
       </c>
-      <c r="I23" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J23" s="3">
         <v>47565</v>
       </c>
       <c r="K23" t="s">
@@ -1520,13 +1521,13 @@
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3">
         <v>45785</v>
       </c>
-      <c r="I24" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J24" s="3">
         <v>47565</v>
       </c>
       <c r="K24" t="s">
@@ -1552,13 +1553,13 @@
       <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3">
         <v>45785</v>
       </c>
-      <c r="I25" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J25" s="3">
         <v>47565</v>
       </c>
       <c r="K25" t="s">
@@ -1584,13 +1585,13 @@
       <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>45785</v>
       </c>
-      <c r="I26" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J26" s="3">
         <v>47565</v>
       </c>
       <c r="K26" t="s">
@@ -1616,13 +1617,13 @@
       <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3">
         <v>45785</v>
       </c>
-      <c r="I27" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J27" s="3">
         <v>47565</v>
       </c>
       <c r="K27" t="s">
@@ -1648,13 +1649,13 @@
       <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3">
         <v>45785</v>
       </c>
-      <c r="I28" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J28" s="3">
         <v>47565</v>
       </c>
       <c r="K28" t="s">
@@ -1680,13 +1681,13 @@
       <c r="F29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3">
         <v>45785</v>
       </c>
-      <c r="I29" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J29" s="3">
         <v>47565</v>
       </c>
       <c r="K29" t="s">
@@ -1712,13 +1713,13 @@
       <c r="F30" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3">
         <v>45785</v>
       </c>
-      <c r="I30" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J30" s="3">
         <v>47565</v>
       </c>
       <c r="K30" t="s">
@@ -1744,13 +1745,13 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3">
         <v>45785</v>
       </c>
-      <c r="I31" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J31" s="3">
         <v>47565</v>
       </c>
       <c r="K31" t="s">
@@ -1776,13 +1777,13 @@
       <c r="F32" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <v>45785</v>
       </c>
-      <c r="I32" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J32" s="3">
         <v>47565</v>
       </c>
       <c r="K32" t="s">
@@ -1808,13 +1809,13 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3">
         <v>45785</v>
       </c>
-      <c r="I33" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J33" s="3">
         <v>47565</v>
       </c>
       <c r="K33" t="s">
@@ -1840,13 +1841,13 @@
       <c r="F34" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3">
         <v>45814</v>
       </c>
-      <c r="I34" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J34" s="3">
         <v>47565</v>
       </c>
       <c r="K34" t="s">
@@ -1872,13 +1873,13 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3">
         <v>45814</v>
       </c>
-      <c r="I35" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J35" s="3">
         <v>47565</v>
       </c>
       <c r="K35" t="s">
@@ -1904,13 +1905,13 @@
       <c r="F36" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3">
         <v>45817</v>
       </c>
-      <c r="I36" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J36" s="3">
         <v>47565</v>
       </c>
       <c r="K36" t="s">
@@ -1936,13 +1937,13 @@
       <c r="F37" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3">
         <v>45785</v>
       </c>
-      <c r="I37" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J37" s="3">
         <v>47565</v>
       </c>
       <c r="K37" t="s">
@@ -1968,13 +1969,13 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3">
         <v>45785</v>
       </c>
-      <c r="I38" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J38" s="3">
         <v>47565</v>
       </c>
       <c r="K38" t="s">
@@ -2000,13 +2001,13 @@
       <c r="F39" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3">
         <v>45815</v>
       </c>
-      <c r="I39" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="I39" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J39" s="3">
         <v>47565</v>
       </c>
       <c r="K39" t="s">
@@ -2032,13 +2033,13 @@
       <c r="F40" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3">
         <v>45815</v>
       </c>
-      <c r="I40" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="I40" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J40" s="3">
         <v>47565</v>
       </c>
       <c r="K40" t="s">
@@ -2064,13 +2065,13 @@
       <c r="F41" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3">
         <v>45815</v>
       </c>
-      <c r="I41" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="I41" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J41" s="3">
         <v>47565</v>
       </c>
       <c r="K41" t="s">
@@ -2096,13 +2097,13 @@
       <c r="F42" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3">
         <v>45841</v>
       </c>
-      <c r="I42" s="1">
-        <v>45740</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" s="3">
+        <v>45740</v>
+      </c>
+      <c r="J42" s="3">
         <v>47565</v>
       </c>
       <c r="K42" t="s">
